--- a/oh boy v2.xlsx
+++ b/oh boy v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE29B69B-C2F2-406B-A2C0-09245E8D9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02E6EE9-ACDA-4194-B3E1-C2FFBE59293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6F06241-590D-407B-B41E-E7D75222F0BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="254">
   <si>
     <t>This project includes almost all of the words in Shalton.</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Šhálská Láňgyska Plána 2</t>
   </si>
   <si>
-    <t>Noun</t>
-  </si>
-  <si>
     <t>Plural noun</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>Plural adjective</t>
   </si>
   <si>
-    <t>Gender word (neutral)</t>
-  </si>
-  <si>
-    <t>Gender word (female)</t>
-  </si>
-  <si>
     <t>Numbers:</t>
   </si>
   <si>
@@ -170,41 +161,650 @@
     <t>900 - Dévinšimtája</t>
   </si>
   <si>
-    <t>1k - Tu̇kstánd</t>
-  </si>
-  <si>
-    <t>2k - Dvátu̇kstánd</t>
-  </si>
-  <si>
-    <t>3k - Trátu̇kstánd</t>
-  </si>
-  <si>
-    <t>4k - Kétviŕtu̇kstánd</t>
-  </si>
-  <si>
-    <t>5k - Péňktu̇kstánd</t>
-  </si>
-  <si>
-    <t>6k - Šéštu̇kstánd</t>
-  </si>
-  <si>
-    <t>7k - Séptu̇kstánd</t>
-  </si>
-  <si>
-    <t>8k - Óštu̇kstánd</t>
-  </si>
-  <si>
-    <t>9k - Dévintu̇kstánd</t>
-  </si>
-  <si>
-    <t>10k - Déstintu̇kstánd</t>
+    <t>1 - Jéda</t>
+  </si>
+  <si>
+    <t>2 - Dváske</t>
+  </si>
+  <si>
+    <t>3 - Tráške</t>
+  </si>
+  <si>
+    <t>4 - Kétviŕte</t>
+  </si>
+  <si>
+    <t>5 - Péňkte</t>
+  </si>
+  <si>
+    <t>6 - Šéšte</t>
+  </si>
+  <si>
+    <t>7 - Sépte</t>
+  </si>
+  <si>
+    <t>8 - Óšte</t>
+  </si>
+  <si>
+    <t>9 - Déviňte</t>
+  </si>
+  <si>
+    <t>10 - Déstine</t>
+  </si>
+  <si>
+    <t>20 - Dvástine</t>
+  </si>
+  <si>
+    <t>30 - Dristine</t>
+  </si>
+  <si>
+    <t>40 - Kétviŕstine</t>
+  </si>
+  <si>
+    <t>50 - Péňkstine</t>
+  </si>
+  <si>
+    <t>60 - Šéštine</t>
+  </si>
+  <si>
+    <t>70 - Séptine</t>
+  </si>
+  <si>
+    <t>80 - Óštine</t>
+  </si>
+  <si>
+    <t>90 - Déviňstine</t>
+  </si>
+  <si>
+    <t>300 - Trášimtáje</t>
+  </si>
+  <si>
+    <t>400 - Kétviršimtáje</t>
+  </si>
+  <si>
+    <t>500 - Pénktšimtáje</t>
+  </si>
+  <si>
+    <t>600 - Šéšimtáje</t>
+  </si>
+  <si>
+    <t>700 - Sépšimtáje</t>
+  </si>
+  <si>
+    <t>800 - Óšimtáje</t>
+  </si>
+  <si>
+    <t>900 - Dévinšimtáje</t>
+  </si>
+  <si>
+    <t>1 - Jédy</t>
+  </si>
+  <si>
+    <t>2 - Dvásky</t>
+  </si>
+  <si>
+    <t>3 - Trášky</t>
+  </si>
+  <si>
+    <t>4 - Kétviŕty</t>
+  </si>
+  <si>
+    <t>5 - Péňkty</t>
+  </si>
+  <si>
+    <t>6 - Šéšty</t>
+  </si>
+  <si>
+    <t>7 - Sépty</t>
+  </si>
+  <si>
+    <t>8 - Óšty</t>
+  </si>
+  <si>
+    <t>9 - Déviňty</t>
+  </si>
+  <si>
+    <t>10 - Déstiny</t>
+  </si>
+  <si>
+    <t>20 - Dvástiny</t>
+  </si>
+  <si>
+    <t>30 - Dristiny</t>
+  </si>
+  <si>
+    <t>40 - Kétviŕstiny</t>
+  </si>
+  <si>
+    <t>50 - Péňkstiny</t>
+  </si>
+  <si>
+    <t>60 - Šéštiny</t>
+  </si>
+  <si>
+    <t>70 - Séptiny</t>
+  </si>
+  <si>
+    <t>80 - Óštiny</t>
+  </si>
+  <si>
+    <t>90 - Déviňstiny</t>
+  </si>
+  <si>
+    <t>100 - Šimtájy</t>
+  </si>
+  <si>
+    <t>200 - Dvášimtájy</t>
+  </si>
+  <si>
+    <t>300 - Trášimtájy</t>
+  </si>
+  <si>
+    <t>400 - Kétviršimtájy</t>
+  </si>
+  <si>
+    <t>500 - Pénktšimtájy</t>
+  </si>
+  <si>
+    <t>600 - Šéšimtájy</t>
+  </si>
+  <si>
+    <t>700 - Sépšimtájy</t>
+  </si>
+  <si>
+    <t>800 - Óšimtájy</t>
+  </si>
+  <si>
+    <t>900 - Dévinšimtájy</t>
+  </si>
+  <si>
+    <t>Noun (male)</t>
+  </si>
+  <si>
+    <t>Noun (female)</t>
+  </si>
+  <si>
+    <t>Noun (neutral)</t>
+  </si>
+  <si>
+    <t>Verb (female)</t>
+  </si>
+  <si>
+    <t>Verb (neutral)</t>
+  </si>
+  <si>
+    <t>Adjective (female)</t>
+  </si>
+  <si>
+    <t>Adjective (neutral)</t>
+  </si>
+  <si>
+    <t>Number (female)</t>
+  </si>
+  <si>
+    <t>Number (neutral)</t>
+  </si>
+  <si>
+    <t>Thing</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>Slippers</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Homework</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>sabáke</t>
+  </si>
+  <si>
+    <t>sabáka</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>ták</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>porcój</t>
+  </si>
+  <si>
+    <t>možnáň</t>
+  </si>
+  <si>
+    <t>šlepétke</t>
+  </si>
+  <si>
+    <t>šlepétka</t>
+  </si>
+  <si>
+    <t>sožnja</t>
+  </si>
+  <si>
+    <t>kita</t>
+  </si>
+  <si>
+    <t>abý</t>
+  </si>
+  <si>
+    <t>domňáisa</t>
+  </si>
+  <si>
+    <t>djéku̇je</t>
+  </si>
+  <si>
+    <t>odéža</t>
+  </si>
+  <si>
+    <t>Kotká</t>
+  </si>
+  <si>
+    <t>Word Prefixes</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>–uz</t>
+  </si>
+  <si>
+    <t>–péš</t>
+  </si>
+  <si>
+    <t>–ov</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>used to</t>
+  </si>
+  <si>
+    <t>–né</t>
+  </si>
+  <si>
+    <t>words with -im, -ir, -il and others</t>
+  </si>
+  <si>
+    <t>former (-ex)</t>
+  </si>
+  <si>
+    <t>1k - Tisič</t>
+  </si>
+  <si>
+    <t>2k - Dvátisič</t>
+  </si>
+  <si>
+    <t>4k - Kétviŕtisič</t>
+  </si>
+  <si>
+    <t>5k - Péňktisič</t>
+  </si>
+  <si>
+    <t>6k - Šéštisič</t>
+  </si>
+  <si>
+    <t>7k - Séptisič</t>
+  </si>
+  <si>
+    <t>8k - Óštisič</t>
+  </si>
+  <si>
+    <t>9k - Dévintisič</t>
+  </si>
+  <si>
+    <t>10k - Déstintisič</t>
+  </si>
+  <si>
+    <t>3k - Trátisič</t>
+  </si>
+  <si>
+    <t>Abbreviatied number</t>
+  </si>
+  <si>
+    <t>1 - Jédája</t>
+  </si>
+  <si>
+    <t>2 - Dváskája</t>
+  </si>
+  <si>
+    <t>3 - Tráškája</t>
+  </si>
+  <si>
+    <t>4 - Kétviŕtája</t>
+  </si>
+  <si>
+    <t>5 - Péňktája</t>
+  </si>
+  <si>
+    <t>6 - Šéštája</t>
+  </si>
+  <si>
+    <t>7 - Séptája</t>
+  </si>
+  <si>
+    <t>8 - Óštájá</t>
+  </si>
+  <si>
+    <t>9 - Déviňtája</t>
+  </si>
+  <si>
+    <t>10 - Déstinája</t>
+  </si>
+  <si>
+    <t>20 - Dvástinája</t>
+  </si>
+  <si>
+    <t>30 - Dristinája</t>
+  </si>
+  <si>
+    <t>40 - Kétviŕstinája</t>
+  </si>
+  <si>
+    <t>50 - Péňkstinája</t>
+  </si>
+  <si>
+    <t>60 - Šéštinája</t>
+  </si>
+  <si>
+    <t>70 - Séptinája</t>
+  </si>
+  <si>
+    <t>80 - Óštinája</t>
+  </si>
+  <si>
+    <t>90 - Déviňstinája</t>
+  </si>
+  <si>
+    <t>1k - Tisičája</t>
+  </si>
+  <si>
+    <t>2k - Dvátisičája</t>
+  </si>
+  <si>
+    <t>3k - Trátisičája</t>
+  </si>
+  <si>
+    <t>4k - Kétviŕtisičája</t>
+  </si>
+  <si>
+    <t>5k - Péňktisičája</t>
+  </si>
+  <si>
+    <t>6k - Šéštisičája</t>
+  </si>
+  <si>
+    <t>7k - Séptisičája</t>
+  </si>
+  <si>
+    <t>8k - Óštisičája</t>
+  </si>
+  <si>
+    <t>9k - Dévintisičája</t>
+  </si>
+  <si>
+    <t>10k - Déstintisičája</t>
+  </si>
+  <si>
+    <t>200 - Dvášimtáj</t>
+  </si>
+  <si>
+    <t>100 - Šimtója</t>
+  </si>
+  <si>
+    <t>200 - Dvášimtója</t>
+  </si>
+  <si>
+    <t>300 - Trášimtója</t>
+  </si>
+  <si>
+    <t>400 - Kétviršimtója</t>
+  </si>
+  <si>
+    <t>500 - Pénktšimtója</t>
+  </si>
+  <si>
+    <t>600 - Šéšimtója</t>
+  </si>
+  <si>
+    <t>700 - Sépšimtója</t>
+  </si>
+  <si>
+    <t>800 - Óšimtója</t>
+  </si>
+  <si>
+    <t>900 - Dévinšimtója</t>
+  </si>
+  <si>
+    <t>12 - Dvánášh</t>
+  </si>
+  <si>
+    <t>13 - Tránášh</t>
+  </si>
+  <si>
+    <t>14 - Kétviŕtnášh</t>
+  </si>
+  <si>
+    <t>16 - Šéštanášh</t>
+  </si>
+  <si>
+    <t>17 - Séptanášh</t>
+  </si>
+  <si>
+    <t>18 - Óštanášh</t>
+  </si>
+  <si>
+    <t>19 - Déviňtnášh</t>
+  </si>
+  <si>
+    <t>15 - Péňktanášh</t>
+  </si>
+  <si>
+    <t>1 - Jédés</t>
+  </si>
+  <si>
+    <t>2 - Dváskés</t>
+  </si>
+  <si>
+    <t>3 - Tráškés</t>
+  </si>
+  <si>
+    <t>4 - Kétviŕtés</t>
+  </si>
+  <si>
+    <t>5 - Péňktés</t>
+  </si>
+  <si>
+    <t>6 - Šéštés</t>
+  </si>
+  <si>
+    <t>7 - Séptés</t>
+  </si>
+  <si>
+    <t>8 - Óštés</t>
+  </si>
+  <si>
+    <t>9 - Déviňtés</t>
+  </si>
+  <si>
+    <t>10 - Déstinés</t>
+  </si>
+  <si>
+    <t>20 - Dvástinés</t>
+  </si>
+  <si>
+    <t>30 - Dristinés</t>
+  </si>
+  <si>
+    <t>40 - Kétviŕstinés</t>
+  </si>
+  <si>
+    <t>50 - Péňkstinés</t>
+  </si>
+  <si>
+    <t>60 - Šéštinés</t>
+  </si>
+  <si>
+    <t>70 - Séptinés</t>
+  </si>
+  <si>
+    <t>80 - Óštinés</t>
+  </si>
+  <si>
+    <t>90 - Déviňstinés</t>
+  </si>
+  <si>
+    <t>100 - Šimtájés</t>
+  </si>
+  <si>
+    <t>200 - Dvášimtájés</t>
+  </si>
+  <si>
+    <t>300 - Trášimtájés</t>
+  </si>
+  <si>
+    <t>400 - Kétviršimtájés</t>
+  </si>
+  <si>
+    <t>500 - Pénktšimtájés</t>
+  </si>
+  <si>
+    <t>600 - Šéšimtájés</t>
+  </si>
+  <si>
+    <t>700 - Sépšimtájés</t>
+  </si>
+  <si>
+    <t>800 - Óšimtájés</t>
+  </si>
+  <si>
+    <t>900 - Dévinšimtájés</t>
+  </si>
+  <si>
+    <t>1k - Tisičés</t>
+  </si>
+  <si>
+    <t>2k - Dvátisičés</t>
+  </si>
+  <si>
+    <t>3k - Trátisičés</t>
+  </si>
+  <si>
+    <t>4k - Kétviŕtisičés</t>
+  </si>
+  <si>
+    <t>5k - Péňktisičés</t>
+  </si>
+  <si>
+    <t>6k - Šéštisičés</t>
+  </si>
+  <si>
+    <t>7k - Séptisičés</t>
+  </si>
+  <si>
+    <t>8k - Óštisičés</t>
+  </si>
+  <si>
+    <t>9k - Dévintisičés</t>
+  </si>
+  <si>
+    <t>10k - Déstintisičés</t>
+  </si>
+  <si>
+    <t>12 - Dvánášhés</t>
+  </si>
+  <si>
+    <t>13 - Tránášhés</t>
+  </si>
+  <si>
+    <t>14 - Kétviŕtnášhés</t>
+  </si>
+  <si>
+    <t>15 - Péňktanášhés</t>
+  </si>
+  <si>
+    <t>16 - Šéštanášhés</t>
+  </si>
+  <si>
+    <t>17 - Séptanášhés</t>
+  </si>
+  <si>
+    <t>18 - Óštanášhés</t>
+  </si>
+  <si>
+    <t>19 - Déviňtnášhés</t>
+  </si>
+  <si>
+    <t>11 - Jédanášh</t>
+  </si>
+  <si>
+    <t>11 - Jédanášhés</t>
+  </si>
+  <si>
+    <t>12 - Dvánášhája</t>
+  </si>
+  <si>
+    <t>13 - Tránášhája</t>
+  </si>
+  <si>
+    <t>14 - Kétviŕtnášhája</t>
+  </si>
+  <si>
+    <t>15 - Péňktanášhája</t>
+  </si>
+  <si>
+    <t>16 - Šéštanášhája</t>
+  </si>
+  <si>
+    <t>17 - Séptanášhája</t>
+  </si>
+  <si>
+    <t>18 - Óštanášhája</t>
+  </si>
+  <si>
+    <t>19 - Déviňtnášhája</t>
+  </si>
+  <si>
+    <t>11 - Jédanášhája</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +832,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,18 +860,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -273,11 +883,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,44 +1223,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E63625-C255-43D2-B952-1AF71420D1B4}">
-  <dimension ref="A1:AS44"/>
+  <dimension ref="A1:AU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AC43" sqref="AC43"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE25" sqref="AE25:AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,363 +1270,1084 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="U5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="T5" s="2" t="s">
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AE5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AP5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="K6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AC5" s="2" t="s">
+      <c r="S6" s="7"/>
+      <c r="U6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="7"/>
+      <c r="AE6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN6" s="7"/>
+      <c r="AP6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU6" s="7"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="3"/>
-      <c r="AC6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ6" s="3"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="8"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
+      <c r="AG7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC8" t="s">
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB10" s="2"/>
+      <c r="AE10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN10" s="2"/>
+      <c r="AP10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC9" t="s">
+      <c r="AI11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="10" t="s">
+      <c r="AI12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7" t="s">
+      <c r="AI13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="AE14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG14" t="s">
         <v>21</v>
       </c>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC12" s="7" t="s">
+      <c r="AI14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC13" s="7" t="s">
+      <c r="AI15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC14" s="7" t="s">
+      <c r="AI16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" t="s">
+        <v>237</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" t="s">
+        <v>242</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE26" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC15" s="7" t="s">
+      <c r="AI26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC16" s="7" t="s">
+      <c r="AI27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC17" s="7" t="s">
+      <c r="AI28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC18" s="7" t="s">
+      <c r="AI29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC19" s="7" t="s">
+      <c r="AI30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC20" s="7" t="s">
+      <c r="AI31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE32" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC21" s="7" t="s">
+      <c r="AI32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC22" s="7" t="s">
+      <c r="AI33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC23" s="7" t="s">
+      <c r="AG34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE35" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC24" s="7" t="s">
+      <c r="AI35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC25" s="7" t="s">
+      <c r="AI36" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE37" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC26" s="7" t="s">
+      <c r="AI37" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE38" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC27" s="7" t="s">
+      <c r="AI38" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC28" s="7" t="s">
+      <c r="AI39" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC29" s="7" t="s">
+      <c r="AI40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC30" s="7" t="s">
+      <c r="AI41" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC31" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC32" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC33" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC34" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC35" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC36" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC37" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC39" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC40" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC41" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC42" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC43" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="29:29" x14ac:dyDescent="0.25">
-      <c r="AC44" s="7"/>
+      <c r="AI42" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE44" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM46" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM47" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE48" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM51" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AM52" s="5" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="46">
+    <mergeCell ref="AQ6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AP5:AU5"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="U5:AC5"/>
+    <mergeCell ref="K5:S5"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
     <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AC5:AJ5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AE5:AN5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="T5:AA5"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="AE52:AJ52"/>
+    <mergeCell ref="AE43:AJ43"/>
+    <mergeCell ref="AE44:AJ44"/>
+    <mergeCell ref="AE45:AJ45"/>
+    <mergeCell ref="AE46:AJ46"/>
+    <mergeCell ref="AE47:AJ47"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AE48:AJ48"/>
+    <mergeCell ref="AE49:AJ49"/>
+    <mergeCell ref="AE50:AJ50"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="AE19:AJ19"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="AE22:AJ22"/>
+    <mergeCell ref="AE23:AJ23"/>
+    <mergeCell ref="AE24:AJ24"/>
+    <mergeCell ref="AE25:AJ25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/oh boy v2.xlsx
+++ b/oh boy v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02E6EE9-ACDA-4194-B3E1-C2FFBE59293C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10CEE8-A1CD-4232-A24C-D3130814E717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6F06241-590D-407B-B41E-E7D75222F0BF}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>Plural verb</t>
   </si>
   <si>
-    <t>Verb</t>
-  </si>
-  <si>
-    <t>Adjective</t>
-  </si>
-  <si>
     <t>Plural adjective</t>
   </si>
   <si>
@@ -798,13 +792,19 @@
   </si>
   <si>
     <t>11 - Jédanášhája</t>
+  </si>
+  <si>
+    <t>Verb (male)</t>
+  </si>
+  <si>
+    <t>Adjective (male)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -839,6 +839,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -860,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -877,18 +884,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,30 +1233,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E63625-C255-43D2-B952-1AF71420D1B4}">
   <dimension ref="A1:AU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE25" sqref="AE25:AJ25"/>
+    <sheetView tabSelected="1" topLeftCell="S10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20:AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -1271,54 +1279,54 @@
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="U5" s="11" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="U5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AE5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AE5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
       <c r="AP5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="7"/>
@@ -1328,128 +1336,128 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="7"/>
       <c r="K6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>8</v>
+        <v>252</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q6" s="10"/>
+      <c r="N6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q6" s="9"/>
       <c r="R6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="S6" s="7"/>
       <c r="U6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>9</v>
+        <v>253</v>
       </c>
       <c r="W6" s="7"/>
-      <c r="X6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA6" s="10"/>
+      <c r="X6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="9"/>
       <c r="AB6" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC6" s="7"/>
       <c r="AE6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF6" s="7"/>
-      <c r="AG6" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ6" s="10"/>
+      <c r="AG6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ6" s="9"/>
       <c r="AK6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AN6" s="7"/>
       <c r="AP6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AQ6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AR6" s="7"/>
       <c r="AS6" s="7"/>
       <c r="AT6" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AU6" s="7"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AE7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AK7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AM7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
@@ -1458,175 +1466,175 @@
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AE8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AM8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AQ8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AE9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AK9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AQ9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AE10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AP10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AE11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AG11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AK11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AM11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AM12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AE13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AG13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AM13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>110</v>
+      <c r="A14" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1634,79 +1642,79 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="AE14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AG14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AK14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AM14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
         <v>111</v>
       </c>
-      <c r="B15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>113</v>
-      </c>
       <c r="AE15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AG15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AK15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AK16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -1714,15 +1722,15 @@
       <c r="AI17" s="7"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AM17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE18" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -1730,15 +1738,15 @@
       <c r="AI18" s="7"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AM18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE19" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7"/>
@@ -1746,15 +1754,15 @@
       <c r="AI19" s="7"/>
       <c r="AJ19" s="7"/>
       <c r="AK19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AM19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE20" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AF20" s="7"/>
       <c r="AG20" s="7"/>
@@ -1762,15 +1770,15 @@
       <c r="AI20" s="7"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AM20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE21" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AF21" s="7"/>
       <c r="AG21" s="7"/>
@@ -1778,15 +1786,15 @@
       <c r="AI21" s="7"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE22" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7"/>
@@ -1794,15 +1802,15 @@
       <c r="AI22" s="7"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE23" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
@@ -1810,15 +1818,15 @@
       <c r="AI23" s="7"/>
       <c r="AJ23" s="7"/>
       <c r="AK23" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE24" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
@@ -1826,15 +1834,15 @@
       <c r="AI24" s="7"/>
       <c r="AJ24" s="7"/>
       <c r="AK24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE25" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
@@ -1842,304 +1850,304 @@
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AG26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AM28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AG29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AM29" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AG30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AM30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AG31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AG32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AM32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AG33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AI33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AM34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE35" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM35" t="s">
         <v>180</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="36" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK36" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AM36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AG37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AI37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AK37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AM37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AK38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AM38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AK39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AM39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AK40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AG41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AM41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AG42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK42" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AM42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE43" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF43" s="7"/>
       <c r="AG43" s="7"/>
@@ -2147,15 +2155,15 @@
       <c r="AI43" s="7"/>
       <c r="AJ43" s="7"/>
       <c r="AK43" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AM43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE44" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AF44" s="7"/>
       <c r="AG44" s="7"/>
@@ -2163,15 +2171,15 @@
       <c r="AI44" s="7"/>
       <c r="AJ44" s="7"/>
       <c r="AK44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE45" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
@@ -2179,15 +2187,15 @@
       <c r="AI45" s="7"/>
       <c r="AJ45" s="7"/>
       <c r="AK45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AM45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE46" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
@@ -2195,15 +2203,15 @@
       <c r="AI46" s="7"/>
       <c r="AJ46" s="7"/>
       <c r="AK46" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM46" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE47" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
@@ -2211,15 +2219,15 @@
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
       <c r="AK47" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE48" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AF48" s="7"/>
       <c r="AG48" s="7"/>
@@ -2227,15 +2235,15 @@
       <c r="AI48" s="7"/>
       <c r="AJ48" s="7"/>
       <c r="AK48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AM48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE49" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
@@ -2243,15 +2251,15 @@
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
       <c r="AK49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AM49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE50" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
@@ -2259,15 +2267,15 @@
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
       <c r="AK50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AM50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE51" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
@@ -2275,15 +2283,15 @@
       <c r="AI51" s="7"/>
       <c r="AJ51" s="7"/>
       <c r="AK51" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE52" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
@@ -2291,14 +2299,44 @@
       <c r="AI52" s="7"/>
       <c r="AJ52" s="7"/>
       <c r="AK52" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AM52" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="AE22:AJ22"/>
+    <mergeCell ref="AE23:AJ23"/>
+    <mergeCell ref="AE24:AJ24"/>
+    <mergeCell ref="AE25:AJ25"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="AE19:AJ19"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="AE52:AJ52"/>
+    <mergeCell ref="AE43:AJ43"/>
+    <mergeCell ref="AE44:AJ44"/>
+    <mergeCell ref="AE45:AJ45"/>
+    <mergeCell ref="AE46:AJ46"/>
+    <mergeCell ref="AE47:AJ47"/>
+    <mergeCell ref="AE48:AJ48"/>
+    <mergeCell ref="AE49:AJ49"/>
+    <mergeCell ref="AE50:AJ50"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="AQ6:AS6"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="AP5:AU5"/>
@@ -2314,37 +2352,7 @@
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="AE5:AN5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="AE52:AJ52"/>
-    <mergeCell ref="AE43:AJ43"/>
-    <mergeCell ref="AE44:AJ44"/>
-    <mergeCell ref="AE45:AJ45"/>
-    <mergeCell ref="AE46:AJ46"/>
-    <mergeCell ref="AE47:AJ47"/>
     <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AE48:AJ48"/>
-    <mergeCell ref="AE49:AJ49"/>
-    <mergeCell ref="AE50:AJ50"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AE17:AJ17"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="AE19:AJ19"/>
-    <mergeCell ref="AE20:AJ20"/>
-    <mergeCell ref="AE21:AJ21"/>
-    <mergeCell ref="AE22:AJ22"/>
-    <mergeCell ref="AE23:AJ23"/>
-    <mergeCell ref="AE24:AJ24"/>
-    <mergeCell ref="AE25:AJ25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/oh boy v2.xlsx
+++ b/oh boy v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10CEE8-A1CD-4232-A24C-D3130814E717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA237423-3084-4E5A-8AFC-56042EC6B965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6F06241-590D-407B-B41E-E7D75222F0BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
   <si>
     <t>This project includes almost all of the words in Shalton.</t>
   </si>
@@ -371,9 +371,6 @@
     <t>sabáke</t>
   </si>
   <si>
-    <t>sabáka</t>
-  </si>
-  <si>
     <t>to do</t>
   </si>
   <si>
@@ -386,39 +383,21 @@
     <t>Cat</t>
   </si>
   <si>
-    <t>porcój</t>
-  </si>
-  <si>
-    <t>možnáň</t>
-  </si>
-  <si>
     <t>šlepétke</t>
   </si>
   <si>
     <t>šlepétka</t>
   </si>
   <si>
-    <t>sožnja</t>
-  </si>
-  <si>
     <t>kita</t>
   </si>
   <si>
     <t>abý</t>
   </si>
   <si>
-    <t>domňáisa</t>
-  </si>
-  <si>
     <t>djéku̇je</t>
   </si>
   <si>
-    <t>odéža</t>
-  </si>
-  <si>
-    <t>Kotká</t>
-  </si>
-  <si>
     <t>Word Prefixes</t>
   </si>
   <si>
@@ -798,6 +777,24 @@
   </si>
   <si>
     <t>Adjective (male)</t>
+  </si>
+  <si>
+    <t>kótka</t>
+  </si>
+  <si>
+    <t>ódéža</t>
+  </si>
+  <si>
+    <t>dómňáisa</t>
+  </si>
+  <si>
+    <t>sóžnja</t>
+  </si>
+  <si>
+    <t>póŕcoj</t>
+  </si>
+  <si>
+    <t>móžnáň</t>
   </si>
 </sst>
 </file>
@@ -881,13 +878,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -896,7 +888,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1233,30 +1230,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E63625-C255-43D2-B952-1AF71420D1B4}">
   <dimension ref="A1:AU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20:AJ20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -1279,164 +1276,164 @@
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="U5" s="8" t="s">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="U5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AE5" s="8" t="s">
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AE5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AP5" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AP5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="8"/>
       <c r="K6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="9" t="s">
+      <c r="L6" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="7" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="8"/>
       <c r="U6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="V6" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="9" t="s">
+      <c r="V6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9" t="s">
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="7" t="s">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="7"/>
-      <c r="AE6" s="7" t="s">
+      <c r="AC6" s="8"/>
+      <c r="AE6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="9" t="s">
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9" t="s">
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="7" t="s">
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN6" s="7"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN6" s="8"/>
       <c r="AP6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU6" s="8"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" t="s">
         <v>112</v>
-      </c>
-      <c r="L7" t="s">
-        <v>113</v>
       </c>
       <c r="AE7" t="s">
         <v>11</v>
@@ -1448,16 +1445,16 @@
         <v>64</v>
       </c>
       <c r="AK7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AM7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
@@ -1469,7 +1466,7 @@
         <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="AE8" t="s">
         <v>40</v>
@@ -1481,16 +1478,16 @@
         <v>65</v>
       </c>
       <c r="AK8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AM8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="AQ8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1498,7 +1495,7 @@
         <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AE9" t="s">
         <v>41</v>
@@ -1510,16 +1507,16 @@
         <v>66</v>
       </c>
       <c r="AK9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AM9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AQ9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -1527,10 +1524,10 @@
         <v>104</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AE10" s="1" t="s">
@@ -1546,18 +1543,18 @@
       </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="AN10" s="2"/>
       <c r="AP10" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ10" s="12" t="s">
-        <v>137</v>
+        <v>129</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -1565,7 +1562,7 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AE11" t="s">
         <v>43</v>
@@ -1577,10 +1574,10 @@
         <v>68</v>
       </c>
       <c r="AK11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AM11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -1588,7 +1585,7 @@
         <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AE12" t="s">
         <v>44</v>
@@ -1600,10 +1597,10 @@
         <v>69</v>
       </c>
       <c r="AK12" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AM12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -1611,7 +1608,7 @@
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="AE13" t="s">
         <v>45</v>
@@ -1623,24 +1620,24 @@
         <v>70</v>
       </c>
       <c r="AK13" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AM13" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="AE14" t="s">
         <v>46</v>
       </c>
@@ -1651,10 +1648,10 @@
         <v>71</v>
       </c>
       <c r="AK14" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="AM14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -1664,9 +1661,6 @@
       <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
       <c r="AE15" t="s">
         <v>47</v>
       </c>
@@ -1677,18 +1671,18 @@
         <v>72</v>
       </c>
       <c r="AK15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AM15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="AE16" t="s">
         <v>48</v>
@@ -1700,160 +1694,160 @@
         <v>73</v>
       </c>
       <c r="AK16" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" t="s">
+        <v>235</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE18" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE21" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE23" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM23" t="s">
         <v>241</v>
       </c>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" t="s">
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE24" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM24" t="s">
         <v>242</v>
       </c>
-      <c r="AM17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE18" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" t="s">
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" t="s">
         <v>233</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM25" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE19" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" t="s">
-        <v>235</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE21" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" t="s">
-        <v>236</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" t="s">
-        <v>237</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE24" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" t="s">
-        <v>239</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AE25" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-      <c r="AK25" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
@@ -1867,10 +1861,10 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AM26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
@@ -1884,10 +1878,10 @@
         <v>75</v>
       </c>
       <c r="AK27" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
@@ -1901,10 +1895,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AM28" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
@@ -1918,10 +1912,10 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AM29" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
@@ -1935,10 +1929,10 @@
         <v>78</v>
       </c>
       <c r="AK30" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AM30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
@@ -1952,10 +1946,10 @@
         <v>79</v>
       </c>
       <c r="AK31" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
@@ -1969,10 +1963,10 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AM32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="31:39" x14ac:dyDescent="0.25">
@@ -1986,10 +1980,10 @@
         <v>81</v>
       </c>
       <c r="AK33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AM33" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="31:39" x14ac:dyDescent="0.25">
@@ -2003,15 +1997,15 @@
         <v>82</v>
       </c>
       <c r="AK34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AM34" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE35" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AG35" t="s">
         <v>31</v>
@@ -2020,10 +2014,10 @@
         <v>83</v>
       </c>
       <c r="AK35" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="AM35" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="31:39" x14ac:dyDescent="0.25">
@@ -2037,10 +2031,10 @@
         <v>84</v>
       </c>
       <c r="AK36" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AM36" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="31:39" x14ac:dyDescent="0.25">
@@ -2054,10 +2048,10 @@
         <v>85</v>
       </c>
       <c r="AK37" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="AM37" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="31:39" x14ac:dyDescent="0.25">
@@ -2071,10 +2065,10 @@
         <v>86</v>
       </c>
       <c r="AK38" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AM38" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="31:39" x14ac:dyDescent="0.25">
@@ -2088,10 +2082,10 @@
         <v>87</v>
       </c>
       <c r="AK39" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AM39" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="31:39" x14ac:dyDescent="0.25">
@@ -2105,10 +2099,10 @@
         <v>88</v>
       </c>
       <c r="AK40" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AM40" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="31:39" x14ac:dyDescent="0.25">
@@ -2122,10 +2116,10 @@
         <v>89</v>
       </c>
       <c r="AK41" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AM41" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="31:39" x14ac:dyDescent="0.25">
@@ -2139,204 +2133,174 @@
         <v>90</v>
       </c>
       <c r="AK42" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE43" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE44" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE45" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM46" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE47" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM47" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE48" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE49" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" t="s">
         <v>222</v>
       </c>
-      <c r="AM42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE43" s="7" t="s">
+      <c r="AM49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE50" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE51" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AF43" s="7"/>
-      <c r="AG43" s="7"/>
-      <c r="AH43" s="7"/>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="7"/>
-      <c r="AK43" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE44" s="7" t="s">
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM51" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="31:39" x14ac:dyDescent="0.25">
+      <c r="AE52" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AF44" s="7"/>
-      <c r="AG44" s="7"/>
-      <c r="AH44" s="7"/>
-      <c r="AI44" s="7"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE45" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF45" s="7"/>
-      <c r="AG45" s="7"/>
-      <c r="AH45" s="7"/>
-      <c r="AI45" s="7"/>
-      <c r="AJ45" s="7"/>
-      <c r="AK45" t="s">
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AM45" t="s">
+      <c r="AM52" s="5" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE46" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
-      <c r="AJ46" s="7"/>
-      <c r="AK46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AM46" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE47" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF47" s="7"/>
-      <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
-      <c r="AJ47" s="7"/>
-      <c r="AK47" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AM47" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE48" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="7"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="7"/>
-      <c r="AJ48" s="7"/>
-      <c r="AK48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE49" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF49" s="7"/>
-      <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
-      <c r="AJ49" s="7"/>
-      <c r="AK49" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE50" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF50" s="7"/>
-      <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
-      <c r="AI50" s="7"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" t="s">
-        <v>230</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE51" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF51" s="7"/>
-      <c r="AG51" s="7"/>
-      <c r="AH51" s="7"/>
-      <c r="AI51" s="7"/>
-      <c r="AJ51" s="7"/>
-      <c r="AK51" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM51" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE52" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="7"/>
-      <c r="AH52" s="7"/>
-      <c r="AI52" s="7"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM52" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AE22:AJ22"/>
-    <mergeCell ref="AE23:AJ23"/>
-    <mergeCell ref="AE24:AJ24"/>
-    <mergeCell ref="AE25:AJ25"/>
-    <mergeCell ref="AE17:AJ17"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="AE19:AJ19"/>
-    <mergeCell ref="AE20:AJ20"/>
-    <mergeCell ref="AE21:AJ21"/>
-    <mergeCell ref="AE52:AJ52"/>
-    <mergeCell ref="AE43:AJ43"/>
-    <mergeCell ref="AE44:AJ44"/>
-    <mergeCell ref="AE45:AJ45"/>
-    <mergeCell ref="AE46:AJ46"/>
-    <mergeCell ref="AE47:AJ47"/>
-    <mergeCell ref="AE48:AJ48"/>
-    <mergeCell ref="AE49:AJ49"/>
-    <mergeCell ref="AE50:AJ50"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="AQ6:AS6"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="AP5:AU5"/>
@@ -2353,6 +2317,36 @@
     <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="AE5:AN5"/>
     <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="AE52:AJ52"/>
+    <mergeCell ref="AE43:AJ43"/>
+    <mergeCell ref="AE44:AJ44"/>
+    <mergeCell ref="AE45:AJ45"/>
+    <mergeCell ref="AE46:AJ46"/>
+    <mergeCell ref="AE47:AJ47"/>
+    <mergeCell ref="AE48:AJ48"/>
+    <mergeCell ref="AE49:AJ49"/>
+    <mergeCell ref="AE50:AJ50"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="AE22:AJ22"/>
+    <mergeCell ref="AE23:AJ23"/>
+    <mergeCell ref="AE24:AJ24"/>
+    <mergeCell ref="AE25:AJ25"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="AE19:AJ19"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="AE21:AJ21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/oh boy v2.xlsx
+++ b/oh boy v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PopsicL\Desktop\carshalton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA237423-3084-4E5A-8AFC-56042EC6B965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12B9CDB-461E-4F96-B4AF-C4FD0C9552C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6F06241-590D-407B-B41E-E7D75222F0BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>This project includes almost all of the words in Shalton.</t>
   </si>
@@ -104,9 +104,6 @@
     <t>10 - Déstina</t>
   </si>
   <si>
-    <t>20 - Dvástina</t>
-  </si>
-  <si>
     <t>30 - Dristina</t>
   </si>
   <si>
@@ -128,33 +125,6 @@
     <t>90 - Déviňstina</t>
   </si>
   <si>
-    <t>100 - Šimtája</t>
-  </si>
-  <si>
-    <t>200 - Dvášimtája</t>
-  </si>
-  <si>
-    <t>300 - Trášimtája</t>
-  </si>
-  <si>
-    <t>400 - Kétviršimtája</t>
-  </si>
-  <si>
-    <t>500 - Pénktšimtája</t>
-  </si>
-  <si>
-    <t>600 - Šéšimtája</t>
-  </si>
-  <si>
-    <t>700 - Sépšimtája</t>
-  </si>
-  <si>
-    <t>800 - Óšimtája</t>
-  </si>
-  <si>
-    <t>900 - Dévinšimtája</t>
-  </si>
-  <si>
     <t>1 - Jéda</t>
   </si>
   <si>
@@ -185,9 +155,6 @@
     <t>10 - Déstine</t>
   </si>
   <si>
-    <t>20 - Dvástine</t>
-  </si>
-  <si>
     <t>30 - Dristine</t>
   </si>
   <si>
@@ -209,27 +176,6 @@
     <t>90 - Déviňstine</t>
   </si>
   <si>
-    <t>300 - Trášimtáje</t>
-  </si>
-  <si>
-    <t>400 - Kétviršimtáje</t>
-  </si>
-  <si>
-    <t>500 - Pénktšimtáje</t>
-  </si>
-  <si>
-    <t>600 - Šéšimtáje</t>
-  </si>
-  <si>
-    <t>700 - Sépšimtáje</t>
-  </si>
-  <si>
-    <t>800 - Óšimtáje</t>
-  </si>
-  <si>
-    <t>900 - Dévinšimtáje</t>
-  </si>
-  <si>
     <t>1 - Jédy</t>
   </si>
   <si>
@@ -260,9 +206,6 @@
     <t>10 - Déstiny</t>
   </si>
   <si>
-    <t>20 - Dvástiny</t>
-  </si>
-  <si>
     <t>30 - Dristiny</t>
   </si>
   <si>
@@ -284,33 +227,6 @@
     <t>90 - Déviňstiny</t>
   </si>
   <si>
-    <t>100 - Šimtájy</t>
-  </si>
-  <si>
-    <t>200 - Dvášimtájy</t>
-  </si>
-  <si>
-    <t>300 - Trášimtájy</t>
-  </si>
-  <si>
-    <t>400 - Kétviršimtájy</t>
-  </si>
-  <si>
-    <t>500 - Pénktšimtájy</t>
-  </si>
-  <si>
-    <t>600 - Šéšimtájy</t>
-  </si>
-  <si>
-    <t>700 - Sépšimtájy</t>
-  </si>
-  <si>
-    <t>800 - Óšimtájy</t>
-  </si>
-  <si>
-    <t>900 - Dévinšimtájy</t>
-  </si>
-  <si>
     <t>Noun (male)</t>
   </si>
   <si>
@@ -410,21 +326,9 @@
     <t>Example</t>
   </si>
   <si>
-    <t>–uz</t>
-  </si>
-  <si>
     <t>–péš</t>
   </si>
   <si>
-    <t>–ov</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>used to</t>
-  </si>
-  <si>
     <t>–né</t>
   </si>
   <si>
@@ -464,123 +368,6 @@
     <t>3k - Trátisič</t>
   </si>
   <si>
-    <t>Abbreviatied number</t>
-  </si>
-  <si>
-    <t>1 - Jédája</t>
-  </si>
-  <si>
-    <t>2 - Dváskája</t>
-  </si>
-  <si>
-    <t>3 - Tráškája</t>
-  </si>
-  <si>
-    <t>4 - Kétviŕtája</t>
-  </si>
-  <si>
-    <t>5 - Péňktája</t>
-  </si>
-  <si>
-    <t>6 - Šéštája</t>
-  </si>
-  <si>
-    <t>7 - Séptája</t>
-  </si>
-  <si>
-    <t>8 - Óštájá</t>
-  </si>
-  <si>
-    <t>9 - Déviňtája</t>
-  </si>
-  <si>
-    <t>10 - Déstinája</t>
-  </si>
-  <si>
-    <t>20 - Dvástinája</t>
-  </si>
-  <si>
-    <t>30 - Dristinája</t>
-  </si>
-  <si>
-    <t>40 - Kétviŕstinája</t>
-  </si>
-  <si>
-    <t>50 - Péňkstinája</t>
-  </si>
-  <si>
-    <t>60 - Šéštinája</t>
-  </si>
-  <si>
-    <t>70 - Séptinája</t>
-  </si>
-  <si>
-    <t>80 - Óštinája</t>
-  </si>
-  <si>
-    <t>90 - Déviňstinája</t>
-  </si>
-  <si>
-    <t>1k - Tisičája</t>
-  </si>
-  <si>
-    <t>2k - Dvátisičája</t>
-  </si>
-  <si>
-    <t>3k - Trátisičája</t>
-  </si>
-  <si>
-    <t>4k - Kétviŕtisičája</t>
-  </si>
-  <si>
-    <t>5k - Péňktisičája</t>
-  </si>
-  <si>
-    <t>6k - Šéštisičája</t>
-  </si>
-  <si>
-    <t>7k - Séptisičája</t>
-  </si>
-  <si>
-    <t>8k - Óštisičája</t>
-  </si>
-  <si>
-    <t>9k - Dévintisičája</t>
-  </si>
-  <si>
-    <t>10k - Déstintisičája</t>
-  </si>
-  <si>
-    <t>200 - Dvášimtáj</t>
-  </si>
-  <si>
-    <t>100 - Šimtója</t>
-  </si>
-  <si>
-    <t>200 - Dvášimtója</t>
-  </si>
-  <si>
-    <t>300 - Trášimtója</t>
-  </si>
-  <si>
-    <t>400 - Kétviršimtója</t>
-  </si>
-  <si>
-    <t>500 - Pénktšimtója</t>
-  </si>
-  <si>
-    <t>600 - Šéšimtója</t>
-  </si>
-  <si>
-    <t>700 - Sépšimtója</t>
-  </si>
-  <si>
-    <t>800 - Óšimtója</t>
-  </si>
-  <si>
-    <t>900 - Dévinšimtója</t>
-  </si>
-  <si>
     <t>12 - Dvánášh</t>
   </si>
   <si>
@@ -746,33 +533,6 @@
     <t>11 - Jédanášhés</t>
   </si>
   <si>
-    <t>12 - Dvánášhája</t>
-  </si>
-  <si>
-    <t>13 - Tránášhája</t>
-  </si>
-  <si>
-    <t>14 - Kétviŕtnášhája</t>
-  </si>
-  <si>
-    <t>15 - Péňktanášhája</t>
-  </si>
-  <si>
-    <t>16 - Šéštanášhája</t>
-  </si>
-  <si>
-    <t>17 - Séptanášhája</t>
-  </si>
-  <si>
-    <t>18 - Óštanášhája</t>
-  </si>
-  <si>
-    <t>19 - Déviňtnášhája</t>
-  </si>
-  <si>
-    <t>11 - Jédanášhája</t>
-  </si>
-  <si>
     <t>Verb (male)</t>
   </si>
   <si>
@@ -795,6 +555,183 @@
   </si>
   <si>
     <t>móžnáň</t>
+  </si>
+  <si>
+    <t>20 - Dvistine</t>
+  </si>
+  <si>
+    <t>20 - Dvistina</t>
+  </si>
+  <si>
+    <t>Ordinal numbers</t>
+  </si>
+  <si>
+    <t>1 - Piéŕwše</t>
+  </si>
+  <si>
+    <t>3 - Téŕže</t>
+  </si>
+  <si>
+    <t>4 - Čtérta</t>
+  </si>
+  <si>
+    <t>10 - Déstinték</t>
+  </si>
+  <si>
+    <t>19 - Déviňtnášék</t>
+  </si>
+  <si>
+    <t>2 - Drugy</t>
+  </si>
+  <si>
+    <t>5 - Péňkték</t>
+  </si>
+  <si>
+    <t>6 - Šéšték</t>
+  </si>
+  <si>
+    <t>7 - Sépték</t>
+  </si>
+  <si>
+    <t>8 - Óštók</t>
+  </si>
+  <si>
+    <t>9 - Déviňték</t>
+  </si>
+  <si>
+    <t>100 - Stáň</t>
+  </si>
+  <si>
+    <t>200 - Dvástáň</t>
+  </si>
+  <si>
+    <t>300 - Trástáň</t>
+  </si>
+  <si>
+    <t>400 - Kétvirstáň</t>
+  </si>
+  <si>
+    <t>500 - Pénktstáň</t>
+  </si>
+  <si>
+    <t>600 - Šéstáň</t>
+  </si>
+  <si>
+    <t>700 - Sépstáň</t>
+  </si>
+  <si>
+    <t>900 - Dévinstáň</t>
+  </si>
+  <si>
+    <t>20 - Dvistiny</t>
+  </si>
+  <si>
+    <t>11 - Jédanášék</t>
+  </si>
+  <si>
+    <t>12 - Dvánášék</t>
+  </si>
+  <si>
+    <t>13 - Tránášék</t>
+  </si>
+  <si>
+    <t>14 - Kétviŕtnášék</t>
+  </si>
+  <si>
+    <t>15 - Péňktanášék</t>
+  </si>
+  <si>
+    <t>16 - Šéštanášék</t>
+  </si>
+  <si>
+    <t>17 - Séptanášék</t>
+  </si>
+  <si>
+    <t>18 - Óštanášék</t>
+  </si>
+  <si>
+    <t>20 - Dvistinék</t>
+  </si>
+  <si>
+    <t>30 - Dristinék</t>
+  </si>
+  <si>
+    <t>40 - Kétviŕstinék</t>
+  </si>
+  <si>
+    <t>50 - Péňkstinék</t>
+  </si>
+  <si>
+    <t>60 - Šéštinék</t>
+  </si>
+  <si>
+    <t>70 - Séptinék</t>
+  </si>
+  <si>
+    <t>80 - Óštinék</t>
+  </si>
+  <si>
+    <t>90 - Déviňstinék</t>
+  </si>
+  <si>
+    <t>100 - Stáňék</t>
+  </si>
+  <si>
+    <t>200 - Dvástáňék</t>
+  </si>
+  <si>
+    <t>300 - Trástáňék</t>
+  </si>
+  <si>
+    <t>400 - Kétvirstáňék</t>
+  </si>
+  <si>
+    <t>500 - Pénktstáňék</t>
+  </si>
+  <si>
+    <t>600 - Šéstáňék</t>
+  </si>
+  <si>
+    <t>700 - Sépstáňék</t>
+  </si>
+  <si>
+    <t>800 - Óstáňék</t>
+  </si>
+  <si>
+    <t>900 - Dévinstáňék</t>
+  </si>
+  <si>
+    <t>800 - Óstáň</t>
+  </si>
+  <si>
+    <t>1k - Tisičék</t>
+  </si>
+  <si>
+    <t>2k - Dvátisičék</t>
+  </si>
+  <si>
+    <t>3k - Trátisičék</t>
+  </si>
+  <si>
+    <t>4k - Kétviŕtisičék</t>
+  </si>
+  <si>
+    <t>5k - Péňktisičék</t>
+  </si>
+  <si>
+    <t>6k - Šéštisičék</t>
+  </si>
+  <si>
+    <t>7k - Séptisičék</t>
+  </si>
+  <si>
+    <t>8k - Óštisičék</t>
+  </si>
+  <si>
+    <t>9k - Dévintisičék</t>
+  </si>
+  <si>
+    <t>10k - Déstintisičék</t>
   </si>
 </sst>
 </file>
@@ -882,17 +819,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,30 +1167,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E63625-C255-43D2-B952-1AF71420D1B4}">
   <dimension ref="A1:AU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="S4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7:AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -1276,54 +1213,54 @@
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="U5" s="12" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="U5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AE5" s="12" t="s">
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AE5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
       <c r="AP5" s="8" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="8"/>
@@ -1333,58 +1270,58 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="11"/>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="H6" s="8" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="8"/>
       <c r="K6" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="M6" s="8"/>
-      <c r="N6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="11"/>
+      <c r="N6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="10"/>
       <c r="R6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="S6" s="8"/>
       <c r="U6" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="W6" s="8"/>
-      <c r="X6" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA6" s="11"/>
+      <c r="X6" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" s="10"/>
       <c r="AB6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1393,145 +1330,137 @@
         <v>12</v>
       </c>
       <c r="AF6" s="8"/>
-      <c r="AG6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ6" s="11"/>
+      <c r="AG6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ6" s="10"/>
       <c r="AK6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="AN6" s="8"/>
       <c r="AP6" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="AQ6" s="8" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="8" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AU6" s="8"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="AE7" t="s">
         <v>11</v>
       </c>
       <c r="AG7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="AM7" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>99</v>
+      </c>
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="AE8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="s">
         <v>13</v>
       </c>
       <c r="AI8" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="AK8" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="AM8" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>127</v>
+        <v>97</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="AE9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AG9" t="s">
         <v>14</v>
       </c>
       <c r="AI9" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="AK9" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="s">
-        <v>145</v>
-      </c>
-      <c r="AP9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="AB10" s="2"/>
       <c r="AE10" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="1" t="s">
@@ -1539,99 +1468,93 @@
       </c>
       <c r="AH10" s="2"/>
       <c r="AI10" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="1" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="AL10" s="2"/>
       <c r="AM10" s="1" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AN10" s="2"/>
-      <c r="AP10" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ10" s="7" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="AE11" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AG11" t="s">
         <v>16</v>
       </c>
       <c r="AI11" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="AK11" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="AM11" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="AE12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="s">
         <v>17</v>
       </c>
       <c r="AI12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="AK12" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="AM12" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="AE13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG13" t="s">
         <v>18</v>
       </c>
       <c r="AI13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="AK13" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1639,76 +1562,76 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="AE14" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AG14" t="s">
         <v>19</v>
       </c>
       <c r="AI14" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="AK14" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="AM14" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="AG15" t="s">
         <v>20</v>
       </c>
       <c r="AI15" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="AK15" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="AM15" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="AE16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="s">
         <v>21</v>
       </c>
       <c r="AI16" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="AK16" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="AM16" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c r="AE17" s="8" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
@@ -1716,15 +1639,15 @@
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="AM17" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE18" s="8" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
@@ -1732,15 +1655,15 @@
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="AM18" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE19" s="8" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
@@ -1748,15 +1671,15 @@
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="AM19" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE20" s="8" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
@@ -1764,15 +1687,15 @@
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="AM20" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE21" s="8" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
@@ -1780,15 +1703,15 @@
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
       <c r="AM21" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE22" s="8" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
@@ -1796,15 +1719,15 @@
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" t="s">
-        <v>230</v>
+        <v>159</v>
       </c>
       <c r="AM22" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE23" s="8" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
@@ -1812,15 +1735,15 @@
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="AM23" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE24" s="8" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
@@ -1828,15 +1751,15 @@
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
       <c r="AK24" t="s">
-        <v>232</v>
+        <v>161</v>
       </c>
       <c r="AM24" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE25" s="8" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
@@ -1844,304 +1767,295 @@
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="AM25" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE26" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="AI26" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AK26" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="AM26" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE27" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="AG27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AK27" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="AM27" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE28" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AK28" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE29" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="AM29" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="AM30" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE31" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="AM31" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="AE32" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI32" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="AM32" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE33" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AG33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="AM33" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>82</v>
-      </c>
+      <c r="AE34" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
       <c r="AK34" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="AM34" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE35" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>83</v>
-      </c>
+      <c r="AE35" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
       <c r="AK35" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="AM35" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE36" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>84</v>
-      </c>
+      <c r="AE36" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
       <c r="AK36" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="AM36" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>85</v>
-      </c>
+      <c r="AE37" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
       <c r="AK37" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="AM37" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI38" t="s">
-        <v>86</v>
-      </c>
+      <c r="AE38" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
       <c r="AK38" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="AM38" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE39" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI39" t="s">
-        <v>87</v>
-      </c>
+      <c r="AE39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
       <c r="AK39" t="s">
-        <v>212</v>
+        <v>141</v>
       </c>
       <c r="AM39" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE40" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>88</v>
-      </c>
+      <c r="AE40" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
       <c r="AK40" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="AM40" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE41" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI41" t="s">
-        <v>89</v>
-      </c>
+      <c r="AE41" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
       <c r="AK41" t="s">
-        <v>214</v>
+        <v>143</v>
       </c>
       <c r="AM41" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="31:39" x14ac:dyDescent="0.25">
-      <c r="AE42" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI42" t="s">
-        <v>90</v>
-      </c>
+      <c r="AE42" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
       <c r="AK42" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="AM42" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE43" s="8" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="AF43" s="8"/>
       <c r="AG43" s="8"/>
@@ -2149,15 +2063,15 @@
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
       <c r="AK43" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="AM43" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE44" s="8" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AF44" s="8"/>
       <c r="AG44" s="8"/>
@@ -2165,15 +2079,15 @@
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
       <c r="AK44" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="AM44" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE45" s="8" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="AF45" s="8"/>
       <c r="AG45" s="8"/>
@@ -2181,15 +2095,15 @@
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
       <c r="AK45" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="AM45" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE46" s="8" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="AF46" s="8"/>
       <c r="AG46" s="8"/>
@@ -2197,15 +2111,15 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
       <c r="AK46" s="3" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="AM46" s="3" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE47" s="8" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="AF47" s="8"/>
       <c r="AG47" s="8"/>
@@ -2213,15 +2127,15 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
       <c r="AK47" s="3" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="AM47" s="3" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE48" s="8" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="AF48" s="8"/>
       <c r="AG48" s="8"/>
@@ -2229,15 +2143,15 @@
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
       <c r="AK48" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="AM48" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE49" s="8" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="AF49" s="8"/>
       <c r="AG49" s="8"/>
@@ -2245,15 +2159,15 @@
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
       <c r="AK49" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="AM49" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE50" s="8" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="AF50" s="8"/>
       <c r="AG50" s="8"/>
@@ -2261,15 +2175,15 @@
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
       <c r="AK50" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="AM50" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE51" s="8" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
@@ -2277,15 +2191,15 @@
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
       <c r="AK51" s="3" t="s">
-        <v>224</v>
+        <v>153</v>
       </c>
       <c r="AM51" s="3" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="31:39" x14ac:dyDescent="0.25">
       <c r="AE52" s="8" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="AF52" s="8"/>
       <c r="AG52" s="8"/>
@@ -2293,14 +2207,53 @@
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
       <c r="AK52" s="5" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="AM52" s="5" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="55">
+    <mergeCell ref="AE39:AJ39"/>
+    <mergeCell ref="AE40:AJ40"/>
+    <mergeCell ref="AE41:AJ41"/>
+    <mergeCell ref="AE42:AJ42"/>
+    <mergeCell ref="AE34:AJ34"/>
+    <mergeCell ref="AE35:AJ35"/>
+    <mergeCell ref="AE36:AJ36"/>
+    <mergeCell ref="AE37:AJ37"/>
+    <mergeCell ref="AE38:AJ38"/>
+    <mergeCell ref="AE22:AJ22"/>
+    <mergeCell ref="AE23:AJ23"/>
+    <mergeCell ref="AE24:AJ24"/>
+    <mergeCell ref="AE25:AJ25"/>
+    <mergeCell ref="AE17:AJ17"/>
+    <mergeCell ref="AE18:AJ18"/>
+    <mergeCell ref="AE19:AJ19"/>
+    <mergeCell ref="AE20:AJ20"/>
+    <mergeCell ref="AE21:AJ21"/>
+    <mergeCell ref="AE52:AJ52"/>
+    <mergeCell ref="AE43:AJ43"/>
+    <mergeCell ref="AE44:AJ44"/>
+    <mergeCell ref="AE45:AJ45"/>
+    <mergeCell ref="AE46:AJ46"/>
+    <mergeCell ref="AE47:AJ47"/>
+    <mergeCell ref="AE48:AJ48"/>
+    <mergeCell ref="AE49:AJ49"/>
+    <mergeCell ref="AE50:AJ50"/>
+    <mergeCell ref="AE51:AJ51"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="AQ6:AS6"/>
     <mergeCell ref="AT6:AU6"/>
     <mergeCell ref="AP5:AU5"/>
@@ -2317,36 +2270,6 @@
     <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="AE5:AN5"/>
     <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="AE52:AJ52"/>
-    <mergeCell ref="AE43:AJ43"/>
-    <mergeCell ref="AE44:AJ44"/>
-    <mergeCell ref="AE45:AJ45"/>
-    <mergeCell ref="AE46:AJ46"/>
-    <mergeCell ref="AE47:AJ47"/>
-    <mergeCell ref="AE48:AJ48"/>
-    <mergeCell ref="AE49:AJ49"/>
-    <mergeCell ref="AE50:AJ50"/>
-    <mergeCell ref="AE51:AJ51"/>
-    <mergeCell ref="AE22:AJ22"/>
-    <mergeCell ref="AE23:AJ23"/>
-    <mergeCell ref="AE24:AJ24"/>
-    <mergeCell ref="AE25:AJ25"/>
-    <mergeCell ref="AE17:AJ17"/>
-    <mergeCell ref="AE18:AJ18"/>
-    <mergeCell ref="AE19:AJ19"/>
-    <mergeCell ref="AE20:AJ20"/>
-    <mergeCell ref="AE21:AJ21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
